--- a/applets/maps-info/data/Analytics Todos los datos de sitios web Ubicación 20200101-20230726.xlsx
+++ b/applets/maps-info/data/Analytics Todos los datos de sitios web Ubicación 20200101-20230726.xlsx
@@ -1,13 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcponce/Documents/GitHub/complex-analysis.github.io/applets/maps-info/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA009DF5-DA4B-5343-B87D-889101E70E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Resumen" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Conjunto de datos1" sheetId="2" r:id="rId4"/>
+    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
+    <sheet name="Conjunto de datos1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -641,11 +663,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
@@ -655,7 +677,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -667,53 +689,378 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" applyNumberFormat="1"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row/>
-    <row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>HYPERLINK("#'Conjunto de datos1'!A1", "Conjunto de datos1")</f>
+        <v>Conjunto de datos1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J196"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -745,7 +1092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -765,19 +1112,19 @@
         <v>1.4553668286448813</v>
       </c>
       <c r="G2" s="1">
-        <v>72.73661450670946</v>
+        <v>72.736614506709458</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -791,7 +1138,7 @@
         <v>39345</v>
       </c>
       <c r="E3" s="2">
-        <v>0.7127208031516076</v>
+        <v>0.71272080315160757</v>
       </c>
       <c r="F3" s="1">
         <v>2.1017410090227475</v>
@@ -800,16 +1147,16 @@
         <v>111.13800991231415</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -832,16 +1179,16 @@
         <v>100.42475316017861</v>
       </c>
       <c r="H4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -855,25 +1202,25 @@
         <v>12475</v>
       </c>
       <c r="E5" s="2">
-        <v>0.7409218436873748</v>
+        <v>0.74092184368737479</v>
       </c>
       <c r="F5" s="1">
         <v>1.8698997995991984</v>
       </c>
       <c r="G5" s="1">
-        <v>94.13699398797596</v>
+        <v>94.136993987975956</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -887,25 +1234,25 @@
         <v>13610</v>
       </c>
       <c r="E6" s="2">
-        <v>0.6606906686260103</v>
+        <v>0.66069066862601034</v>
       </c>
       <c r="F6" s="1">
-        <v>2.361131520940485</v>
+        <v>2.3611315209404848</v>
       </c>
       <c r="G6" s="1">
         <v>123.27986774430566</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -919,25 +1266,25 @@
         <v>9191</v>
       </c>
       <c r="E7" s="2">
-        <v>0.6767489935806767</v>
+        <v>0.67674899358067675</v>
       </c>
       <c r="F7" s="1">
-        <v>2.353824393428354</v>
+        <v>2.3538243934283538</v>
       </c>
       <c r="G7" s="1">
         <v>143.72005222500272</v>
       </c>
       <c r="H7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -951,7 +1298,7 @@
         <v>7381</v>
       </c>
       <c r="E8" s="2">
-        <v>0.7385178160140903</v>
+        <v>0.73851781601409028</v>
       </c>
       <c r="F8" s="1">
         <v>1.9754775775640157</v>
@@ -960,16 +1307,16 @@
         <v>102.13209592196179</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -983,25 +1330,25 @@
         <v>5252</v>
       </c>
       <c r="E9" s="2">
-        <v>0.8191165270373191</v>
+        <v>0.81911652703731908</v>
       </c>
       <c r="F9" s="1">
-        <v>1.431835491241432</v>
+        <v>1.4318354912414319</v>
       </c>
       <c r="G9" s="1">
-        <v>75.14718202589489</v>
+        <v>75.147182025894892</v>
       </c>
       <c r="H9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1362,7 @@
         <v>5325</v>
       </c>
       <c r="E10" s="2">
-        <v>0.7183098591549296</v>
+        <v>0.71830985915492962</v>
       </c>
       <c r="F10" s="1">
         <v>1.9406572769953052</v>
@@ -1024,16 +1371,16 @@
         <v>104.29896713615024</v>
       </c>
       <c r="H10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1047,25 +1394,25 @@
         <v>5098</v>
       </c>
       <c r="E11" s="2">
-        <v>0.7263632797175363</v>
+        <v>0.72636327971753634</v>
       </c>
       <c r="F11" s="1">
         <v>1.7875637504903883</v>
       </c>
       <c r="G11" s="1">
-        <v>99.75539427226363</v>
+        <v>99.755394272263629</v>
       </c>
       <c r="H11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1079,7 +1426,7 @@
         <v>3940</v>
       </c>
       <c r="E12" s="2">
-        <v>0.5885786802030457</v>
+        <v>0.58857868020304571</v>
       </c>
       <c r="F12" s="1">
         <v>2.2238578680203047</v>
@@ -1088,16 +1435,16 @@
         <v>138.49010152284265</v>
       </c>
       <c r="H12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1111,25 +1458,25 @@
         <v>4012</v>
       </c>
       <c r="E13" s="2">
-        <v>0.7290628115653041</v>
+        <v>0.72906281156530406</v>
       </c>
       <c r="F13" s="1">
-        <v>2.143320039880359</v>
+        <v>2.1433200398803591</v>
       </c>
       <c r="G13" s="1">
         <v>100.79087736789631</v>
       </c>
       <c r="H13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1143,25 +1490,25 @@
         <v>3258</v>
       </c>
       <c r="E14" s="2">
-        <v>0.7934315531000614</v>
+        <v>0.79343155310006142</v>
       </c>
       <c r="F14" s="1">
         <v>1.5245549416820134</v>
       </c>
       <c r="G14" s="1">
-        <v>93.09944751381215</v>
+        <v>93.099447513812152</v>
       </c>
       <c r="H14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1175,7 +1522,7 @@
         <v>2977</v>
       </c>
       <c r="E15" s="2">
-        <v>0.7134699361773598</v>
+        <v>0.71346993617735976</v>
       </c>
       <c r="F15" s="1">
         <v>2.1676184077930802</v>
@@ -1184,16 +1531,16 @@
         <v>130.11622438696673</v>
       </c>
       <c r="H15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1207,25 +1554,25 @@
         <v>2533</v>
       </c>
       <c r="E16" s="2">
-        <v>0.7196999605211212</v>
+        <v>0.71969996052112117</v>
       </c>
       <c r="F16" s="1">
         <v>2.391235688906435</v>
       </c>
       <c r="G16" s="1">
-        <v>96.58744571654165</v>
+        <v>96.587445716541652</v>
       </c>
       <c r="H16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1586,7 @@
         <v>2913</v>
       </c>
       <c r="E17" s="2">
-        <v>0.7222794370065225</v>
+        <v>0.72227943700652253</v>
       </c>
       <c r="F17" s="1">
         <v>1.8949536560247169</v>
@@ -1248,16 +1595,16 @@
         <v>113.95331273601099</v>
       </c>
       <c r="H17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1271,7 +1618,7 @@
         <v>2825</v>
       </c>
       <c r="E18" s="2">
-        <v>0.6191150442477876</v>
+        <v>0.61911504424778763</v>
       </c>
       <c r="F18" s="1">
         <v>2.7398230088495574</v>
@@ -1280,16 +1627,16 @@
         <v>155.16318584070797</v>
       </c>
       <c r="H18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1303,7 +1650,7 @@
         <v>2244</v>
       </c>
       <c r="E19" s="2">
-        <v>0.6599821746880571</v>
+        <v>0.65998217468805709</v>
       </c>
       <c r="F19" s="1">
         <v>2.322638146167558</v>
@@ -1312,16 +1659,16 @@
         <v>123.41711229946524</v>
       </c>
       <c r="H19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1335,25 +1682,25 @@
         <v>1991</v>
       </c>
       <c r="E20" s="2">
-        <v>0.8166750376695128</v>
+        <v>0.81667503766951277</v>
       </c>
       <c r="F20" s="1">
         <v>1.5092918131592166</v>
       </c>
       <c r="G20" s="1">
-        <v>71.54344550477147</v>
+        <v>71.543445504771469</v>
       </c>
       <c r="H20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1367,25 +1714,25 @@
         <v>2177</v>
       </c>
       <c r="E21" s="2">
-        <v>0.662379421221865</v>
+        <v>0.66237942122186499</v>
       </c>
       <c r="F21" s="1">
-        <v>2.313275149288011</v>
+        <v>2.3132751492880108</v>
       </c>
       <c r="G21" s="1">
         <v>122.9265043638034</v>
       </c>
       <c r="H21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1399,7 +1746,7 @@
         <v>2185</v>
       </c>
       <c r="E22" s="2">
-        <v>0.6750572082379863</v>
+        <v>0.67505720823798632</v>
       </c>
       <c r="F22" s="1">
         <v>2.2929061784897025</v>
@@ -1408,16 +1755,16 @@
         <v>114.06407322654462</v>
       </c>
       <c r="H22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1431,7 +1778,7 @@
         <v>1987</v>
       </c>
       <c r="E23" s="2">
-        <v>0.7075993960744842</v>
+        <v>0.70759939607448419</v>
       </c>
       <c r="F23" s="1">
         <v>2.2118772018117765</v>
@@ -1440,16 +1787,16 @@
         <v>109.73829894313035</v>
       </c>
       <c r="H23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1466,22 +1813,22 @@
         <v>0.715852442671984</v>
       </c>
       <c r="F24" s="1">
-        <v>2.042372881355932</v>
+        <v>2.0423728813559321</v>
       </c>
       <c r="G24" s="1">
         <v>141.66151545363908</v>
       </c>
       <c r="H24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1842,7 @@
         <v>1737</v>
       </c>
       <c r="E25" s="2">
-        <v>0.7374784110535406</v>
+        <v>0.73747841105354062</v>
       </c>
       <c r="F25" s="1">
         <v>1.7553252734599885</v>
@@ -1504,16 +1851,16 @@
         <v>122.0356937248129</v>
       </c>
       <c r="H25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1536,16 +1883,16 @@
         <v>125.11181640625</v>
       </c>
       <c r="H26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1559,7 +1906,7 @@
         <v>1764</v>
       </c>
       <c r="E27" s="2">
-        <v>0.6207482993197279</v>
+        <v>0.62074829931972786</v>
       </c>
       <c r="F27" s="1">
         <v>2.5170068027210886</v>
@@ -1568,16 +1915,16 @@
         <v>114.81859410430839</v>
       </c>
       <c r="H27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1591,25 +1938,25 @@
         <v>1749</v>
       </c>
       <c r="E28" s="2">
-        <v>0.7324185248713551</v>
+        <v>0.73241852487135506</v>
       </c>
       <c r="F28" s="1">
-        <v>2.078902229845626</v>
+        <v>2.0789022298456259</v>
       </c>
       <c r="G28" s="1">
         <v>124.36878216123499</v>
       </c>
       <c r="H28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1623,7 +1970,7 @@
         <v>1747</v>
       </c>
       <c r="E29" s="2">
-        <v>0.7034917000572409</v>
+        <v>0.70349170005724093</v>
       </c>
       <c r="F29" s="1">
         <v>1.8420148826559817</v>
@@ -1632,16 +1979,16 @@
         <v>111.46250715512306</v>
       </c>
       <c r="H29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1655,7 +2002,7 @@
         <v>1596</v>
       </c>
       <c r="E30" s="2">
-        <v>0.6578947368421053</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="F30" s="1">
         <v>2.3646616541353382</v>
@@ -1664,16 +2011,16 @@
         <v>115.55701754385964</v>
       </c>
       <c r="H30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1687,7 +2034,7 @@
         <v>1488</v>
       </c>
       <c r="E31" s="2">
-        <v>0.7580645161290323</v>
+        <v>0.75806451612903225</v>
       </c>
       <c r="F31" s="1">
         <v>1.7184139784946237</v>
@@ -1696,16 +2043,16 @@
         <v>102.65188172043011</v>
       </c>
       <c r="H31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1719,25 +2066,25 @@
         <v>1287</v>
       </c>
       <c r="E32" s="2">
-        <v>0.7863247863247863</v>
+        <v>0.78632478632478631</v>
       </c>
       <c r="F32" s="1">
         <v>1.7373737373737375</v>
       </c>
       <c r="G32" s="1">
-        <v>79.58585858585859</v>
+        <v>79.585858585858588</v>
       </c>
       <c r="H32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1751,25 +2098,25 @@
         <v>1428</v>
       </c>
       <c r="E33" s="2">
-        <v>0.7563025210084033</v>
+        <v>0.75630252100840334</v>
       </c>
       <c r="F33" s="1">
         <v>1.7380952380952381</v>
       </c>
       <c r="G33" s="1">
-        <v>73.37464985994397</v>
+        <v>73.374649859943972</v>
       </c>
       <c r="H33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1783,25 +2130,25 @@
         <v>1269</v>
       </c>
       <c r="E34" s="2">
-        <v>0.7927501970055162</v>
+        <v>0.79275019700551619</v>
       </c>
       <c r="F34" s="1">
         <v>1.648542159180457</v>
       </c>
       <c r="G34" s="1">
-        <v>81.59101654846336</v>
+        <v>81.591016548463358</v>
       </c>
       <c r="H34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -1815,7 +2162,7 @@
         <v>1352</v>
       </c>
       <c r="E35" s="2">
-        <v>0.7078402366863905</v>
+        <v>0.70784023668639051</v>
       </c>
       <c r="F35" s="1">
         <v>2.0051775147928996</v>
@@ -1824,16 +2171,16 @@
         <v>109.77218934911242</v>
       </c>
       <c r="H35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -1850,22 +2197,22 @@
         <v>0.7749615975422427</v>
       </c>
       <c r="F36" s="1">
-        <v>2.099846390168971</v>
+        <v>2.0998463901689708</v>
       </c>
       <c r="G36" s="1">
-        <v>81.79032258064517</v>
+        <v>81.790322580645167</v>
       </c>
       <c r="H36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1879,25 +2226,25 @@
         <v>1147</v>
       </c>
       <c r="E37" s="2">
-        <v>0.8020924149956408</v>
+        <v>0.80209241499564077</v>
       </c>
       <c r="F37" s="1">
         <v>1.6172624237140367</v>
       </c>
       <c r="G37" s="1">
-        <v>95.31037489102005</v>
+        <v>95.310374891020047</v>
       </c>
       <c r="H37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1911,25 +2258,25 @@
         <v>1620</v>
       </c>
       <c r="E38" s="2">
-        <v>0.7388888888888889</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="F38" s="1">
         <v>1.9950617283950618</v>
       </c>
       <c r="G38" s="1">
-        <v>135.1259259259259</v>
+        <v>135.12592592592591</v>
       </c>
       <c r="H38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1943,25 +2290,25 @@
         <v>1112</v>
       </c>
       <c r="E39" s="2">
-        <v>0.8093525179856115</v>
+        <v>0.80935251798561147</v>
       </c>
       <c r="F39" s="1">
         <v>1.4946043165467626</v>
       </c>
       <c r="G39" s="1">
-        <v>72.94604316546763</v>
+        <v>72.946043165467628</v>
       </c>
       <c r="H39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -1975,7 +2322,7 @@
         <v>1118</v>
       </c>
       <c r="E40" s="2">
-        <v>0.7647584973166368</v>
+        <v>0.76475849731663681</v>
       </c>
       <c r="F40" s="1">
         <v>1.8354203935599285</v>
@@ -1984,16 +2331,16 @@
         <v>123.39982110912344</v>
       </c>
       <c r="H40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -2007,25 +2354,25 @@
         <v>1121</v>
       </c>
       <c r="E41" s="2">
-        <v>0.695807314897413</v>
+        <v>0.69580731489741299</v>
       </c>
       <c r="F41" s="1">
-        <v>2.248884924174844</v>
+        <v>2.2488849241748441</v>
       </c>
       <c r="G41" s="1">
         <v>111.80731489741302</v>
       </c>
       <c r="H41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2039,25 +2386,25 @@
         <v>810</v>
       </c>
       <c r="E42" s="2">
-        <v>0.8197530864197531</v>
+        <v>0.81975308641975309</v>
       </c>
       <c r="F42" s="1">
         <v>1.4580246913580246</v>
       </c>
       <c r="G42" s="1">
-        <v>65.53827160493827</v>
+        <v>65.538271604938274</v>
       </c>
       <c r="H42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2071,25 +2418,25 @@
         <v>851</v>
       </c>
       <c r="E43" s="2">
-        <v>0.7027027027027027</v>
+        <v>0.70270270270270274</v>
       </c>
       <c r="F43" s="1">
-        <v>2.036427732079906</v>
+        <v>2.0364277320799058</v>
       </c>
       <c r="G43" s="1">
         <v>116.44418331374852</v>
       </c>
       <c r="H43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -2103,25 +2450,25 @@
         <v>843</v>
       </c>
       <c r="E44" s="2">
-        <v>0.6986951364175563</v>
+        <v>0.69869513641755632</v>
       </c>
       <c r="F44" s="1">
         <v>1.7983392645314353</v>
       </c>
       <c r="G44" s="1">
-        <v>75.95610913404508</v>
+        <v>75.956109134045079</v>
       </c>
       <c r="H44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -2135,25 +2482,25 @@
         <v>959</v>
       </c>
       <c r="E45" s="2">
-        <v>0.8310740354535975</v>
+        <v>0.83107403545359748</v>
       </c>
       <c r="F45" s="1">
-        <v>1.407716371220021</v>
+        <v>1.4077163712200209</v>
       </c>
       <c r="G45" s="1">
-        <v>76.1511991657977</v>
+        <v>76.151199165797706</v>
       </c>
       <c r="H45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -2176,16 +2523,16 @@
         <v>104.46911957950066</v>
       </c>
       <c r="H46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2199,7 +2546,7 @@
         <v>873</v>
       </c>
       <c r="E47" s="2">
-        <v>0.7502863688430699</v>
+        <v>0.75028636884306987</v>
       </c>
       <c r="F47" s="1">
         <v>2.0217640320733103</v>
@@ -2208,16 +2555,16 @@
         <v>120.27835051546391</v>
       </c>
       <c r="H47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2231,25 +2578,25 @@
         <v>886</v>
       </c>
       <c r="E48" s="2">
-        <v>0.7392776523702032</v>
+        <v>0.73927765237020315</v>
       </c>
       <c r="F48" s="1">
-        <v>1.881489841986456</v>
+        <v>1.8814898419864561</v>
       </c>
       <c r="G48" s="1">
-        <v>81.07562076749436</v>
+        <v>81.075620767494357</v>
       </c>
       <c r="H48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2272,16 +2619,16 @@
         <v>95.1080459770115</v>
       </c>
       <c r="H49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -2295,7 +2642,7 @@
         <v>820</v>
       </c>
       <c r="E50" s="2">
-        <v>0.7621951219512195</v>
+        <v>0.76219512195121952</v>
       </c>
       <c r="F50" s="1">
         <v>1.7682926829268293</v>
@@ -2304,16 +2651,16 @@
         <v>107.11219512195122</v>
       </c>
       <c r="H50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -2327,7 +2674,7 @@
         <v>918</v>
       </c>
       <c r="E51" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F51" s="1">
         <v>2.0610021786492374</v>
@@ -2336,16 +2683,16 @@
         <v>152.62091503267973</v>
       </c>
       <c r="H51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2359,7 +2706,7 @@
         <v>823</v>
       </c>
       <c r="E52" s="2">
-        <v>0.6938031591737546</v>
+        <v>0.69380315917375457</v>
       </c>
       <c r="F52" s="1">
         <v>1.7460510328068044</v>
@@ -2368,16 +2715,16 @@
         <v>103.64520048602674</v>
       </c>
       <c r="H52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -2391,7 +2738,7 @@
         <v>694</v>
       </c>
       <c r="E53" s="2">
-        <v>0.6786743515850144</v>
+        <v>0.67867435158501443</v>
       </c>
       <c r="F53" s="1">
         <v>2.451008645533141</v>
@@ -2400,16 +2747,16 @@
         <v>95.07925072046109</v>
       </c>
       <c r="H53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -2423,7 +2770,7 @@
         <v>728</v>
       </c>
       <c r="E54" s="2">
-        <v>0.6923076923076923</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="F54" s="1">
         <v>2.1758241758241756</v>
@@ -2432,16 +2779,16 @@
         <v>116.15247252747253</v>
       </c>
       <c r="H54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -2455,25 +2802,25 @@
         <v>699</v>
       </c>
       <c r="E55" s="2">
-        <v>0.7739628040057225</v>
+        <v>0.77396280400572248</v>
       </c>
       <c r="F55" s="1">
-        <v>1.844062947067239</v>
+        <v>1.8440629470672389</v>
       </c>
       <c r="G55" s="1">
-        <v>82.67954220314735</v>
+        <v>82.679542203147349</v>
       </c>
       <c r="H55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -2487,7 +2834,7 @@
         <v>696</v>
       </c>
       <c r="E56" s="2">
-        <v>0.6752873563218391</v>
+        <v>0.67528735632183912</v>
       </c>
       <c r="F56" s="1">
         <v>2.6666666666666665</v>
@@ -2496,16 +2843,16 @@
         <v>139.95689655172413</v>
       </c>
       <c r="H56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -2519,25 +2866,25 @@
         <v>591</v>
       </c>
       <c r="E57" s="2">
-        <v>0.6802030456852792</v>
+        <v>0.68020304568527923</v>
       </c>
       <c r="F57" s="1">
         <v>1.972927241962775</v>
       </c>
       <c r="G57" s="1">
-        <v>92.83587140439933</v>
+        <v>92.835871404399327</v>
       </c>
       <c r="H57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -2551,25 +2898,25 @@
         <v>722</v>
       </c>
       <c r="E58" s="2">
-        <v>0.7950138504155124</v>
+        <v>0.79501385041551242</v>
       </c>
       <c r="F58" s="1">
         <v>1.5401662049861495</v>
       </c>
       <c r="G58" s="1">
-        <v>87.07617728531856</v>
+        <v>87.076177285318565</v>
       </c>
       <c r="H58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -2583,25 +2930,25 @@
         <v>558</v>
       </c>
       <c r="E59" s="2">
-        <v>0.7132616487455197</v>
+        <v>0.71326164874551967</v>
       </c>
       <c r="F59" s="1">
-        <v>2.378136200716846</v>
+        <v>2.3781362007168458</v>
       </c>
       <c r="G59" s="1">
-        <v>109.8673835125448</v>
+        <v>109.86738351254481</v>
       </c>
       <c r="H59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -2615,25 +2962,25 @@
         <v>532</v>
       </c>
       <c r="E60" s="2">
-        <v>0.8120300751879699</v>
+        <v>0.81203007518796988</v>
       </c>
       <c r="F60" s="1">
-        <v>1.644736842105263</v>
+        <v>1.6447368421052631</v>
       </c>
       <c r="G60" s="1">
-        <v>73.05075187969925</v>
+        <v>73.050751879699249</v>
       </c>
       <c r="H60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -2647,25 +2994,25 @@
         <v>595</v>
       </c>
       <c r="E61" s="2">
-        <v>0.6739495798319328</v>
+        <v>0.67394957983193282</v>
       </c>
       <c r="F61" s="1">
-        <v>2.026890756302521</v>
+        <v>2.0268907563025209</v>
       </c>
       <c r="G61" s="1">
-        <v>94.05210084033614</v>
+        <v>94.052100840336138</v>
       </c>
       <c r="H61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -2679,25 +3026,25 @@
         <v>522</v>
       </c>
       <c r="E62" s="2">
-        <v>0.7528735632183908</v>
+        <v>0.75287356321839083</v>
       </c>
       <c r="F62" s="1">
         <v>1.7337164750957854</v>
       </c>
       <c r="G62" s="1">
-        <v>76.38505747126437</v>
+        <v>76.385057471264375</v>
       </c>
       <c r="H62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -2720,16 +3067,16 @@
         <v>185.11854684512429</v>
       </c>
       <c r="H63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -2743,25 +3090,25 @@
         <v>664</v>
       </c>
       <c r="E64" s="2">
-        <v>0.572289156626506</v>
+        <v>0.57228915662650603</v>
       </c>
       <c r="F64" s="1">
         <v>2.0436746987951806</v>
       </c>
       <c r="G64" s="1">
-        <v>88.18975903614458</v>
+        <v>88.189759036144579</v>
       </c>
       <c r="H64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -2784,16 +3131,16 @@
         <v>129.61825726141078</v>
       </c>
       <c r="H65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -2807,7 +3154,7 @@
         <v>376</v>
       </c>
       <c r="E66" s="2">
-        <v>0.7367021276595744</v>
+        <v>0.73670212765957444</v>
       </c>
       <c r="F66" s="1">
         <v>1.8537234042553192</v>
@@ -2816,16 +3163,16 @@
         <v>99.52925531914893</v>
       </c>
       <c r="H66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -2839,25 +3186,25 @@
         <v>500</v>
       </c>
       <c r="E67" s="2">
-        <v>0.686</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="F67" s="1">
         <v>2.456</v>
       </c>
       <c r="G67" s="1">
-        <v>101.448</v>
+        <v>101.44799999999999</v>
       </c>
       <c r="H67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -2874,22 +3221,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F68" s="1">
-        <v>1.750759878419453</v>
+        <v>1.7507598784194529</v>
       </c>
       <c r="G68" s="1">
         <v>61.775075987841944</v>
       </c>
       <c r="H68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -2903,7 +3250,7 @@
         <v>339</v>
       </c>
       <c r="E69" s="2">
-        <v>0.7433628318584071</v>
+        <v>0.74336283185840712</v>
       </c>
       <c r="F69" s="1">
         <v>1.8112094395280236</v>
@@ -2912,16 +3259,16 @@
         <v>102.38053097345133</v>
       </c>
       <c r="H69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -2935,25 +3282,25 @@
         <v>346</v>
       </c>
       <c r="E70" s="2">
-        <v>0.815028901734104</v>
+        <v>0.81502890173410403</v>
       </c>
       <c r="F70" s="1">
-        <v>1.592485549132948</v>
+        <v>1.5924855491329479</v>
       </c>
       <c r="G70" s="1">
         <v>80.95375722543352</v>
       </c>
       <c r="H70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -2967,25 +3314,25 @@
         <v>338</v>
       </c>
       <c r="E71" s="2">
-        <v>0.8165680473372781</v>
+        <v>0.81656804733727806</v>
       </c>
       <c r="F71" s="1">
         <v>1.4082840236686391</v>
       </c>
       <c r="G71" s="1">
-        <v>78.17455621301775</v>
+        <v>78.174556213017752</v>
       </c>
       <c r="H71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -2999,7 +3346,7 @@
         <v>294</v>
       </c>
       <c r="E72" s="2">
-        <v>0.7278911564625851</v>
+        <v>0.72789115646258506</v>
       </c>
       <c r="F72" s="1">
         <v>1.717687074829932</v>
@@ -3008,16 +3355,16 @@
         <v>92.91836734693878</v>
       </c>
       <c r="H72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -3031,7 +3378,7 @@
         <v>338</v>
       </c>
       <c r="E73" s="2">
-        <v>0.7455621301775148</v>
+        <v>0.74556213017751483</v>
       </c>
       <c r="F73" s="1">
         <v>1.7899408284023668</v>
@@ -3040,16 +3387,16 @@
         <v>112.63609467455622</v>
       </c>
       <c r="H73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -3063,25 +3410,25 @@
         <v>325</v>
       </c>
       <c r="E74" s="2">
-        <v>0.7107692307692308</v>
+        <v>0.71076923076923082</v>
       </c>
       <c r="F74" s="1">
-        <v>2.166153846153846</v>
+        <v>2.1661538461538461</v>
       </c>
       <c r="G74" s="1">
         <v>142.84615384615384</v>
       </c>
       <c r="H74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -3095,7 +3442,7 @@
         <v>331</v>
       </c>
       <c r="E75" s="2">
-        <v>0.6706948640483383</v>
+        <v>0.67069486404833834</v>
       </c>
       <c r="F75" s="1">
         <v>2.404833836858006</v>
@@ -3104,16 +3451,16 @@
         <v>107.94259818731118</v>
       </c>
       <c r="H75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -3127,25 +3474,25 @@
         <v>295</v>
       </c>
       <c r="E76" s="2">
-        <v>0.8372881355932204</v>
+        <v>0.83728813559322035</v>
       </c>
       <c r="F76" s="1">
         <v>1.4203389830508475</v>
       </c>
       <c r="G76" s="1">
-        <v>84.86779661016949</v>
+        <v>84.867796610169492</v>
       </c>
       <c r="H76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -3159,25 +3506,25 @@
         <v>303</v>
       </c>
       <c r="E77" s="2">
-        <v>0.7227722772277227</v>
+        <v>0.72277227722772275</v>
       </c>
       <c r="F77" s="1">
-        <v>2.211221122112211</v>
+        <v>2.2112211221122111</v>
       </c>
       <c r="G77" s="1">
         <v>121.55445544554455</v>
       </c>
       <c r="H77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3197,19 +3544,19 @@
         <v>1.8177777777777777</v>
       </c>
       <c r="G78" s="1">
-        <v>71.70666666666666</v>
+        <v>71.706666666666663</v>
       </c>
       <c r="H78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3223,25 +3570,25 @@
         <v>227</v>
       </c>
       <c r="E79" s="2">
-        <v>0.7841409691629956</v>
+        <v>0.78414096916299558</v>
       </c>
       <c r="F79" s="1">
         <v>1.6475770925110131</v>
       </c>
       <c r="G79" s="1">
-        <v>99.54625550660793</v>
+        <v>99.546255506607935</v>
       </c>
       <c r="H79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -3255,25 +3602,25 @@
         <v>282</v>
       </c>
       <c r="E80" s="2">
-        <v>0.7943262411347518</v>
+        <v>0.79432624113475181</v>
       </c>
       <c r="F80" s="1">
         <v>1.574468085106383</v>
       </c>
       <c r="G80" s="1">
-        <v>86.5709219858156</v>
+        <v>86.570921985815602</v>
       </c>
       <c r="H80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -3296,16 +3643,16 @@
         <v>154.17813765182186</v>
       </c>
       <c r="H81" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -3319,25 +3666,25 @@
         <v>254</v>
       </c>
       <c r="E82" s="2">
-        <v>0.6141732283464567</v>
+        <v>0.61417322834645671</v>
       </c>
       <c r="F82" s="1">
-        <v>2.267716535433071</v>
+        <v>2.2677165354330708</v>
       </c>
       <c r="G82" s="1">
         <v>115.01181102362204</v>
       </c>
       <c r="H82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -3351,7 +3698,7 @@
         <v>202</v>
       </c>
       <c r="E83" s="2">
-        <v>0.6881188118811881</v>
+        <v>0.68811881188118806</v>
       </c>
       <c r="F83" s="1">
         <v>1.9752475247524752</v>
@@ -3360,16 +3707,16 @@
         <v>157.27227722772278</v>
       </c>
       <c r="H83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -3392,16 +3739,16 @@
         <v>110.41666666666667</v>
       </c>
       <c r="H84" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -3424,16 +3771,16 @@
         <v>181.22285714285715</v>
       </c>
       <c r="H85" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -3447,7 +3794,7 @@
         <v>186</v>
       </c>
       <c r="E86" s="2">
-        <v>0.7419354838709677</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="F86" s="1">
         <v>1.935483870967742</v>
@@ -3456,16 +3803,16 @@
         <v>127.26344086021506</v>
       </c>
       <c r="H86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -3479,25 +3826,25 @@
         <v>173</v>
       </c>
       <c r="E87" s="2">
-        <v>0.7341040462427746</v>
+        <v>0.73410404624277459</v>
       </c>
       <c r="F87" s="1">
         <v>2.2427745664739884</v>
       </c>
       <c r="G87" s="1">
-        <v>87.0635838150289</v>
+        <v>87.063583815028906</v>
       </c>
       <c r="H87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -3511,25 +3858,25 @@
         <v>154</v>
       </c>
       <c r="E88" s="2">
-        <v>0.7337662337662337</v>
+        <v>0.73376623376623373</v>
       </c>
       <c r="F88" s="1">
         <v>1.7077922077922079</v>
       </c>
       <c r="G88" s="1">
-        <v>78.53896103896103</v>
+        <v>78.538961038961034</v>
       </c>
       <c r="H88" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -3543,25 +3890,25 @@
         <v>206</v>
       </c>
       <c r="E89" s="2">
-        <v>0.6213592233009708</v>
+        <v>0.62135922330097082</v>
       </c>
       <c r="F89" s="1">
         <v>2.29126213592233</v>
       </c>
       <c r="G89" s="1">
-        <v>197.9902912621359</v>
+        <v>197.99029126213591</v>
       </c>
       <c r="H89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -3575,25 +3922,25 @@
         <v>136</v>
       </c>
       <c r="E90" s="2">
-        <v>0.8676470588235294</v>
+        <v>0.86764705882352944</v>
       </c>
       <c r="F90" s="1">
         <v>1.3897058823529411</v>
       </c>
       <c r="G90" s="1">
-        <v>67.08823529411765</v>
+        <v>67.088235294117652</v>
       </c>
       <c r="H90" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -3607,25 +3954,25 @@
         <v>172</v>
       </c>
       <c r="E91" s="2">
-        <v>0.7732558139534884</v>
+        <v>0.77325581395348841</v>
       </c>
       <c r="F91" s="1">
         <v>1.7732558139534884</v>
       </c>
       <c r="G91" s="1">
-        <v>84.6453488372093</v>
+        <v>84.645348837209298</v>
       </c>
       <c r="H91" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -3639,7 +3986,7 @@
         <v>153</v>
       </c>
       <c r="E92" s="2">
-        <v>0.8300653594771242</v>
+        <v>0.83006535947712423</v>
       </c>
       <c r="F92" s="1">
         <v>1.803921568627451</v>
@@ -3648,16 +3995,16 @@
         <v>54.254901960784316</v>
       </c>
       <c r="H92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -3671,7 +4018,7 @@
         <v>145</v>
       </c>
       <c r="E93" s="2">
-        <v>0.8689655172413793</v>
+        <v>0.86896551724137927</v>
       </c>
       <c r="F93" s="1">
         <v>2.2758620689655173</v>
@@ -3680,16 +4027,16 @@
         <v>125.15172413793104</v>
       </c>
       <c r="H93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -3703,25 +4050,25 @@
         <v>101</v>
       </c>
       <c r="E94" s="2">
-        <v>0.7623762376237624</v>
+        <v>0.76237623762376239</v>
       </c>
       <c r="F94" s="1">
         <v>1.5346534653465347</v>
       </c>
       <c r="G94" s="1">
-        <v>98.72277227722772</v>
+        <v>98.722772277227719</v>
       </c>
       <c r="H94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -3735,25 +4082,25 @@
         <v>120</v>
       </c>
       <c r="E95" s="2">
-        <v>0.7833333333333333</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="F95" s="1">
         <v>1.6</v>
       </c>
       <c r="G95" s="1">
-        <v>89.58333333333333</v>
+        <v>89.583333333333329</v>
       </c>
       <c r="H95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -3776,16 +4123,16 @@
         <v>31.738317757009344</v>
       </c>
       <c r="H96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -3799,25 +4146,25 @@
         <v>110</v>
       </c>
       <c r="E97" s="2">
-        <v>0.7545454545454545</v>
+        <v>0.75454545454545452</v>
       </c>
       <c r="F97" s="1">
-        <v>2.018181818181818</v>
+        <v>2.0181818181818181</v>
       </c>
       <c r="G97" s="1">
         <v>150.42727272727274</v>
       </c>
       <c r="H97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -3840,16 +4187,16 @@
         <v>31.03</v>
       </c>
       <c r="H98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -3863,7 +4210,7 @@
         <v>95</v>
       </c>
       <c r="E99" s="2">
-        <v>0.7157894736842105</v>
+        <v>0.71578947368421053</v>
       </c>
       <c r="F99" s="1">
         <v>2.1894736842105265</v>
@@ -3872,16 +4219,16 @@
         <v>115.65263157894736</v>
       </c>
       <c r="H99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -3895,25 +4242,25 @@
         <v>90</v>
       </c>
       <c r="E100" s="2">
-        <v>0.7666666666666667</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="F100" s="1">
         <v>1.3888888888888888</v>
       </c>
       <c r="G100" s="1">
-        <v>49.32222222222222</v>
+        <v>49.322222222222223</v>
       </c>
       <c r="H100" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -3927,7 +4274,7 @@
         <v>97</v>
       </c>
       <c r="E101" s="2">
-        <v>0.7422680412371134</v>
+        <v>0.74226804123711343</v>
       </c>
       <c r="F101" s="1">
         <v>2.9278350515463916</v>
@@ -3936,16 +4283,16 @@
         <v>144.23711340206185</v>
       </c>
       <c r="H101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -3959,25 +4306,25 @@
         <v>75</v>
       </c>
       <c r="E102" s="2">
-        <v>0.9066666666666666</v>
+        <v>0.90666666666666662</v>
       </c>
       <c r="F102" s="1">
         <v>1.1733333333333333</v>
       </c>
       <c r="G102" s="1">
-        <v>5.413333333333333</v>
+        <v>5.4133333333333331</v>
       </c>
       <c r="H102" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -3991,25 +4338,25 @@
         <v>113</v>
       </c>
       <c r="E103" s="2">
-        <v>0.6814159292035398</v>
+        <v>0.68141592920353977</v>
       </c>
       <c r="F103" s="1">
         <v>2.247787610619469</v>
       </c>
       <c r="G103" s="1">
-        <v>136.4867256637168</v>
+        <v>136.48672566371681</v>
       </c>
       <c r="H103" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -4029,19 +4376,19 @@
         <v>2.088888888888889</v>
       </c>
       <c r="G104" s="1">
-        <v>91.43333333333334</v>
+        <v>91.433333333333337</v>
       </c>
       <c r="H104" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -4055,25 +4402,25 @@
         <v>75</v>
       </c>
       <c r="E105" s="2">
-        <v>0.6533333333333333</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="F105" s="1">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G105" s="1">
-        <v>64.77333333333333</v>
+        <v>64.773333333333326</v>
       </c>
       <c r="H105" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -4087,25 +4434,25 @@
         <v>83</v>
       </c>
       <c r="E106" s="2">
-        <v>0.7349397590361446</v>
+        <v>0.73493975903614461</v>
       </c>
       <c r="F106" s="1">
         <v>1.5421686746987953</v>
       </c>
       <c r="G106" s="1">
-        <v>99.83132530120481</v>
+        <v>99.831325301204814</v>
       </c>
       <c r="H106" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -4119,25 +4466,25 @@
         <v>103</v>
       </c>
       <c r="E107" s="2">
-        <v>0.7184466019417476</v>
+        <v>0.71844660194174759</v>
       </c>
       <c r="F107" s="1">
         <v>1.8155339805825244</v>
       </c>
       <c r="G107" s="1">
-        <v>91.66990291262135</v>
+        <v>91.669902912621353</v>
       </c>
       <c r="H107" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -4151,25 +4498,25 @@
         <v>94</v>
       </c>
       <c r="E108" s="2">
-        <v>0.8404255319148937</v>
+        <v>0.84042553191489366</v>
       </c>
       <c r="F108" s="1">
         <v>1.3085106382978724</v>
       </c>
       <c r="G108" s="1">
-        <v>92.03191489361703</v>
+        <v>92.031914893617028</v>
       </c>
       <c r="H108" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -4183,7 +4530,7 @@
         <v>68</v>
       </c>
       <c r="E109" s="2">
-        <v>0.7794117647058824</v>
+        <v>0.77941176470588236</v>
       </c>
       <c r="F109" s="1">
         <v>1.5147058823529411</v>
@@ -4192,16 +4539,16 @@
         <v>22.794117647058822</v>
       </c>
       <c r="H109" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -4215,25 +4562,25 @@
         <v>76</v>
       </c>
       <c r="E110" s="2">
-        <v>0.8026315789473685</v>
+        <v>0.80263157894736847</v>
       </c>
       <c r="F110" s="1">
         <v>1.9605263157894737</v>
       </c>
       <c r="G110" s="1">
-        <v>33.53947368421053</v>
+        <v>33.539473684210527</v>
       </c>
       <c r="H110" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -4247,7 +4594,7 @@
         <v>114</v>
       </c>
       <c r="E111" s="2">
-        <v>0.6140350877192983</v>
+        <v>0.61403508771929827</v>
       </c>
       <c r="F111" s="1">
         <v>2.7280701754385963</v>
@@ -4256,16 +4603,16 @@
         <v>247.26315789473685</v>
       </c>
       <c r="H111" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -4282,22 +4629,22 @@
         <v>0.75</v>
       </c>
       <c r="F112" s="1">
-        <v>2.6625</v>
+        <v>2.6625000000000001</v>
       </c>
       <c r="G112" s="1">
-        <v>269.325</v>
+        <v>269.32499999999999</v>
       </c>
       <c r="H112" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -4320,16 +4667,16 @@
         <v>43.31666666666667</v>
       </c>
       <c r="H113" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -4343,7 +4690,7 @@
         <v>75</v>
       </c>
       <c r="E114" s="2">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F114" s="1">
         <v>2.16</v>
@@ -4352,16 +4699,16 @@
         <v>180.30666666666667</v>
       </c>
       <c r="H114" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -4375,25 +4722,25 @@
         <v>73</v>
       </c>
       <c r="E115" s="2">
-        <v>0.726027397260274</v>
+        <v>0.72602739726027399</v>
       </c>
       <c r="F115" s="1">
-        <v>2.712328767123288</v>
+        <v>2.7123287671232879</v>
       </c>
       <c r="G115" s="1">
         <v>151.43835616438355</v>
       </c>
       <c r="H115" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -4407,25 +4754,25 @@
         <v>68</v>
       </c>
       <c r="E116" s="2">
-        <v>0.7941176470588235</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="F116" s="1">
         <v>1.8088235294117647</v>
       </c>
       <c r="G116" s="1">
-        <v>77.3970588235294</v>
+        <v>77.397058823529406</v>
       </c>
       <c r="H116" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -4439,25 +4786,25 @@
         <v>55</v>
       </c>
       <c r="E117" s="2">
-        <v>0.7818181818181819</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="F117" s="1">
         <v>1.290909090909091</v>
       </c>
       <c r="G117" s="1">
-        <v>19.70909090909091</v>
+        <v>19.709090909090911</v>
       </c>
       <c r="H117" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -4471,25 +4818,25 @@
         <v>66</v>
       </c>
       <c r="E118" s="2">
-        <v>0.6212121212121212</v>
+        <v>0.62121212121212122</v>
       </c>
       <c r="F118" s="1">
         <v>1.6363636363636365</v>
       </c>
       <c r="G118" s="1">
-        <v>77.9090909090909</v>
+        <v>77.909090909090907</v>
       </c>
       <c r="H118" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -4503,7 +4850,7 @@
         <v>51</v>
       </c>
       <c r="E119" s="2">
-        <v>0.7450980392156863</v>
+        <v>0.74509803921568629</v>
       </c>
       <c r="F119" s="1">
         <v>1.4705882352941178</v>
@@ -4512,16 +4859,16 @@
         <v>108.74509803921569</v>
       </c>
       <c r="H119" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -4544,16 +4891,16 @@
         <v>103.75</v>
       </c>
       <c r="H120" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -4567,7 +4914,7 @@
         <v>47</v>
       </c>
       <c r="E121" s="2">
-        <v>0.7872340425531915</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="F121" s="1">
         <v>1.8085106382978724</v>
@@ -4576,16 +4923,16 @@
         <v>35.702127659574465</v>
       </c>
       <c r="H121" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -4599,7 +4946,7 @@
         <v>53</v>
       </c>
       <c r="E122" s="2">
-        <v>0.6981132075471698</v>
+        <v>0.69811320754716977</v>
       </c>
       <c r="F122" s="1">
         <v>2.4339622641509435</v>
@@ -4608,16 +4955,16 @@
         <v>181.0566037735849</v>
       </c>
       <c r="H122" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -4631,25 +4978,25 @@
         <v>54</v>
       </c>
       <c r="E123" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F123" s="1">
         <v>1.5740740740740742</v>
       </c>
       <c r="G123" s="1">
-        <v>77.46296296296296</v>
+        <v>77.462962962962962</v>
       </c>
       <c r="H123" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -4663,25 +5010,25 @@
         <v>43</v>
       </c>
       <c r="E124" s="2">
-        <v>0.8604651162790697</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="F124" s="1">
         <v>1.2325581395348837</v>
       </c>
       <c r="G124" s="1">
-        <v>27.72093023255814</v>
+        <v>27.720930232558139</v>
       </c>
       <c r="H124" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -4695,7 +5042,7 @@
         <v>51</v>
       </c>
       <c r="E125" s="2">
-        <v>0.7254901960784313</v>
+        <v>0.72549019607843135</v>
       </c>
       <c r="F125" s="1">
         <v>1.9411764705882353</v>
@@ -4704,16 +5051,16 @@
         <v>111.33333333333333</v>
       </c>
       <c r="H125" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -4727,25 +5074,25 @@
         <v>49</v>
       </c>
       <c r="E126" s="2">
-        <v>0.9183673469387755</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="F126" s="1">
-        <v>2.326530612244898</v>
+        <v>2.3265306122448979</v>
       </c>
       <c r="G126" s="1">
         <v>42.673469387755105</v>
       </c>
       <c r="H126" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -4759,7 +5106,7 @@
         <v>51</v>
       </c>
       <c r="E127" s="2">
-        <v>0.6862745098039216</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="F127" s="1">
         <v>2.2745098039215685</v>
@@ -4768,16 +5115,16 @@
         <v>173.37254901960785</v>
       </c>
       <c r="H127" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -4791,7 +5138,7 @@
         <v>41</v>
       </c>
       <c r="E128" s="2">
-        <v>0.7560975609756098</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="F128" s="1">
         <v>1.2682926829268293</v>
@@ -4800,16 +5147,16 @@
         <v>132.41463414634146</v>
       </c>
       <c r="H128" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -4823,7 +5170,7 @@
         <v>41</v>
       </c>
       <c r="E129" s="2">
-        <v>0.6585365853658537</v>
+        <v>0.65853658536585369</v>
       </c>
       <c r="F129" s="1">
         <v>1.6341463414634145</v>
@@ -4832,16 +5179,16 @@
         <v>220.6829268292683</v>
       </c>
       <c r="H129" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -4864,16 +5211,16 @@
         <v>34.75</v>
       </c>
       <c r="H130" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -4887,7 +5234,7 @@
         <v>30</v>
       </c>
       <c r="E131" s="2">
-        <v>0.7333333333333333</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="F131" s="1">
         <v>1.6666666666666667</v>
@@ -4896,16 +5243,16 @@
         <v>163.73333333333332</v>
       </c>
       <c r="H131" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -4919,7 +5266,7 @@
         <v>26</v>
       </c>
       <c r="E132" s="2">
-        <v>0.8461538461538461</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="F132" s="1">
         <v>1.1538461538461537</v>
@@ -4928,16 +5275,16 @@
         <v>35.46153846153846</v>
       </c>
       <c r="H132" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -4951,7 +5298,7 @@
         <v>26</v>
       </c>
       <c r="E133" s="2">
-        <v>0.5769230769230769</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="F133" s="1">
         <v>1.7692307692307692</v>
@@ -4960,16 +5307,16 @@
         <v>109.88461538461539</v>
       </c>
       <c r="H133" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -4992,16 +5339,16 @@
         <v>68.92</v>
       </c>
       <c r="H134" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -5021,19 +5368,19 @@
         <v>1.4</v>
       </c>
       <c r="G135" s="1">
-        <v>158.52</v>
+        <v>158.52000000000001</v>
       </c>
       <c r="H135" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -5047,7 +5394,7 @@
         <v>23</v>
       </c>
       <c r="E136" s="2">
-        <v>0.6521739130434783</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="F136" s="1">
         <v>3.5217391304347827</v>
@@ -5056,16 +5403,16 @@
         <v>101.30434782608695</v>
       </c>
       <c r="H136" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -5079,7 +5426,7 @@
         <v>22</v>
       </c>
       <c r="E137" s="2">
-        <v>0.6363636363636364</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="F137" s="1">
         <v>1.5</v>
@@ -5088,16 +5435,16 @@
         <v>88.5</v>
       </c>
       <c r="H137" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -5111,25 +5458,25 @@
         <v>24</v>
       </c>
       <c r="E138" s="2">
-        <v>0.7083333333333334</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F138" s="1">
         <v>1.3333333333333333</v>
       </c>
       <c r="G138" s="1">
-        <v>91.83333333333333</v>
+        <v>91.833333333333329</v>
       </c>
       <c r="H138" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -5143,7 +5490,7 @@
         <v>21</v>
       </c>
       <c r="E139" s="2">
-        <v>0.8095238095238095</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="F139" s="1">
         <v>1.2857142857142858</v>
@@ -5152,16 +5499,16 @@
         <v>182.57142857142858</v>
       </c>
       <c r="H139" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -5181,19 +5528,19 @@
         <v>1.3928571428571428</v>
       </c>
       <c r="G140" s="1">
-        <v>8.928571428571429</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="H140" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -5216,16 +5563,16 @@
         <v>35.25</v>
       </c>
       <c r="H141" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -5239,7 +5586,7 @@
         <v>17</v>
       </c>
       <c r="E142" s="2">
-        <v>0.9411764705882353</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="F142" s="1">
         <v>1.0588235294117647</v>
@@ -5248,16 +5595,16 @@
         <v>1.3529411764705883</v>
       </c>
       <c r="H142" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -5280,16 +5627,16 @@
         <v>46.06666666666667</v>
       </c>
       <c r="H143" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -5303,7 +5650,7 @@
         <v>12</v>
       </c>
       <c r="E144" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F144" s="1">
         <v>2.0833333333333335</v>
@@ -5312,16 +5659,16 @@
         <v>79.25</v>
       </c>
       <c r="H144" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -5338,22 +5685,22 @@
         <v>0.38461538461538464</v>
       </c>
       <c r="F145" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G145" s="1">
-        <v>38.76923076923077</v>
+        <v>38.769230769230766</v>
       </c>
       <c r="H145" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -5373,19 +5720,19 @@
         <v>2.1</v>
       </c>
       <c r="G146" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H146" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -5408,16 +5755,16 @@
         <v>228.23076923076923</v>
       </c>
       <c r="H147" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -5440,16 +5787,16 @@
         <v>40.4</v>
       </c>
       <c r="H148" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -5472,16 +5819,16 @@
         <v>64.8</v>
       </c>
       <c r="H149" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -5504,16 +5851,16 @@
         <v>90.8</v>
       </c>
       <c r="H150" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -5527,25 +5874,25 @@
         <v>9</v>
       </c>
       <c r="E151" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F151" s="1">
         <v>1.4444444444444444</v>
       </c>
       <c r="G151" s="1">
-        <v>31.88888888888889</v>
+        <v>31.888888888888889</v>
       </c>
       <c r="H151" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -5559,25 +5906,25 @@
         <v>9</v>
       </c>
       <c r="E152" s="2">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F152" s="1">
         <v>1.8888888888888888</v>
       </c>
       <c r="G152" s="1">
-        <v>11.11111111111111</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H152" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -5591,7 +5938,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="2">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F153" s="1">
         <v>1.1111111111111112</v>
@@ -5600,16 +5947,16 @@
         <v>36.111111111111114</v>
       </c>
       <c r="H153" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -5626,22 +5973,22 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="F154" s="1">
-        <v>5.428571428571429</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="G154" s="1">
-        <v>410.3333333333333</v>
+        <v>410.33333333333331</v>
       </c>
       <c r="H154" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -5664,16 +6011,16 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="H155" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -5696,16 +6043,16 @@
         <v>166.7</v>
       </c>
       <c r="H156" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -5719,25 +6066,25 @@
         <v>9</v>
       </c>
       <c r="E157" s="2">
-        <v>0.7777777777777778</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F157" s="1">
         <v>1.8888888888888888</v>
       </c>
       <c r="G157" s="1">
-        <v>79.77777777777777</v>
+        <v>79.777777777777771</v>
       </c>
       <c r="H157" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -5760,16 +6107,16 @@
         <v>508.5</v>
       </c>
       <c r="H158" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -5792,16 +6139,16 @@
         <v>13.8</v>
       </c>
       <c r="H159" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -5824,16 +6171,16 @@
         <v>327.57142857142856</v>
       </c>
       <c r="H160" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -5847,7 +6194,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="2">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F161" s="1">
         <v>1.5555555555555556</v>
@@ -5856,16 +6203,16 @@
         <v>16.444444444444443</v>
       </c>
       <c r="H161" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -5888,16 +6235,16 @@
         <v>33.4</v>
       </c>
       <c r="H162" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -5911,25 +6258,25 @@
         <v>5</v>
       </c>
       <c r="E163" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F163" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G163" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H163" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -5943,7 +6290,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F164" s="1">
         <v>2.3333333333333335</v>
@@ -5952,16 +6299,16 @@
         <v>105.33333333333333</v>
       </c>
       <c r="H164" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -5975,7 +6322,7 @@
         <v>22</v>
       </c>
       <c r="E165" s="2">
-        <v>0.9545454545454546</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="F165" s="1">
         <v>1.0454545454545454</v>
@@ -5984,16 +6331,16 @@
         <v>29.227272727272727</v>
       </c>
       <c r="H165" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -6010,22 +6357,22 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="F166" s="1">
-        <v>2.857142857142857</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="G166" s="1">
-        <v>812.8571428571429</v>
+        <v>812.85714285714289</v>
       </c>
       <c r="H166" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -6039,25 +6386,25 @@
         <v>4</v>
       </c>
       <c r="E167" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F167" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G167" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H167" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -6080,16 +6427,16 @@
         <v>330.5</v>
       </c>
       <c r="H168" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -6106,22 +6453,22 @@
         <v>0.75</v>
       </c>
       <c r="F169" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G169" s="1">
         <v>93.5</v>
       </c>
       <c r="H169" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -6144,16 +6491,16 @@
         <v>145.75</v>
       </c>
       <c r="H170" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -6167,25 +6514,25 @@
         <v>4</v>
       </c>
       <c r="E171" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F171" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G171" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H171" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -6202,22 +6549,22 @@
         <v>0.25</v>
       </c>
       <c r="F172" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G172" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="H172" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -6231,25 +6578,25 @@
         <v>3</v>
       </c>
       <c r="E173" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F173" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G173" s="1">
         <v>145.66666666666666</v>
       </c>
       <c r="H173" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -6263,25 +6610,25 @@
         <v>3</v>
       </c>
       <c r="E174" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F174" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G174" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="H174" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -6295,25 +6642,25 @@
         <v>4</v>
       </c>
       <c r="E175" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F175" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G175" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H175" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -6336,16 +6683,16 @@
         <v>24.5</v>
       </c>
       <c r="H176" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -6359,25 +6706,25 @@
         <v>2</v>
       </c>
       <c r="E177" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F177" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H177" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -6391,25 +6738,25 @@
         <v>2</v>
       </c>
       <c r="E178" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F178" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G178" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H178" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I178">
         <v>0</v>
       </c>
       <c r="J178" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -6423,25 +6770,25 @@
         <v>2</v>
       </c>
       <c r="E179" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F179" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G179" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H179" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -6461,19 +6808,19 @@
         <v>1.5</v>
       </c>
       <c r="G180" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="H180" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -6487,25 +6834,25 @@
         <v>3</v>
       </c>
       <c r="E181" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F181" s="1">
         <v>6.333333333333333</v>
       </c>
       <c r="G181" s="1">
-        <v>852.3333333333334</v>
+        <v>852.33333333333337</v>
       </c>
       <c r="H181" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -6519,25 +6866,25 @@
         <v>1</v>
       </c>
       <c r="E182" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F182" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H182" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>0</v>
       </c>
       <c r="J182" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -6551,25 +6898,25 @@
         <v>1</v>
       </c>
       <c r="E183" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F183" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G183" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H183" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -6583,25 +6930,25 @@
         <v>2</v>
       </c>
       <c r="E184" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F184" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G184" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H184" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -6615,25 +6962,25 @@
         <v>1</v>
       </c>
       <c r="E185" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F185" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G185" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="H185" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -6647,25 +6994,25 @@
         <v>1</v>
       </c>
       <c r="E186" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F186" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G186" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H186" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -6679,25 +7026,25 @@
         <v>1</v>
       </c>
       <c r="E187" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F187" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G187" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H187" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -6711,25 +7058,25 @@
         <v>2</v>
       </c>
       <c r="E188" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F188" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G188" s="1">
         <v>63.5</v>
       </c>
       <c r="H188" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -6743,25 +7090,25 @@
         <v>1</v>
       </c>
       <c r="E189" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F189" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G189" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H189" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -6775,25 +7122,25 @@
         <v>1</v>
       </c>
       <c r="E190" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F190" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G190" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H190" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -6807,25 +7154,25 @@
         <v>1</v>
       </c>
       <c r="E191" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F191" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G191" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H191" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -6839,25 +7186,25 @@
         <v>1</v>
       </c>
       <c r="E192" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F192" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G192" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H192" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -6871,25 +7218,25 @@
         <v>1</v>
       </c>
       <c r="E193" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F193" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G193" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H193" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>0</v>
       </c>
       <c r="J193" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -6903,25 +7250,25 @@
         <v>1</v>
       </c>
       <c r="E194" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F194" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G194" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H194" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -6935,25 +7282,25 @@
         <v>1</v>
       </c>
       <c r="E195" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F195" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G195" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H195" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B196">
         <v>196861</v>
       </c>
@@ -6964,7 +7311,7 @@
         <v>268805</v>
       </c>
       <c r="E196" s="2">
-        <v>0.7470917579658116</v>
+        <v>0.74709175796581162</v>
       </c>
       <c r="F196" s="1">
         <v>1.8708766578002642</v>
@@ -6973,15 +7320,16 @@
         <v>100.03798664459366</v>
       </c>
       <c r="H196" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>